--- a/viable_options.xlsx
+++ b/viable_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheertsang/github/LaMeraChimba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8243C90B-68C8-EC41-9786-8F8F4C25A811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7052DFA4-BE86-3D4C-A1CA-ADECA664AFB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14660" activeTab="1" xr2:uid="{2A37547B-1E6D-2B48-9F4A-4A4F1C972538}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>0.8703 liter / second</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t> bottom height (in)</t>
+  </si>
+  <si>
+    <t> slab height (mm)</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1247,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1269,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>53</v>
@@ -1294,8 +1297,8 @@
       <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
+      <c r="F2" s="7">
+        <v>50</v>
       </c>
       <c r="G2" s="18">
         <v>15.161259999999999</v>
@@ -1304,8 +1307,8 @@
         <f>G2-A2</f>
         <v>10.161259999999999</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>29</v>
+      <c r="I2" s="7">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1324,8 +1327,8 @@
       <c r="E3" s="7">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
+      <c r="F3" s="7">
+        <v>60</v>
       </c>
       <c r="G3" s="18">
         <v>16.159479999999999</v>
@@ -1334,8 +1337,8 @@
         <f>G3-A3</f>
         <v>10.159479999999999</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>31</v>
+      <c r="I3" s="7">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1354,8 +1357,8 @@
       <c r="E4" s="11">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>33</v>
+      <c r="F4" s="11">
+        <v>70</v>
       </c>
       <c r="G4" s="19">
         <v>17.160239999999998</v>
@@ -1364,8 +1367,8 @@
         <f>G4-A4</f>
         <v>10.160239999999998</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>34</v>
+      <c r="I4" s="11">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1384,8 +1387,8 @@
       <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
+      <c r="F5" s="7">
+        <v>50</v>
       </c>
       <c r="G5" s="18">
         <v>17.701259999999998</v>
@@ -1394,8 +1397,8 @@
         <f>G5-A5</f>
         <v>12.701259999999998</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>37</v>
+      <c r="I5" s="7">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1414,8 +1417,8 @@
       <c r="E6" s="7">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
+      <c r="F6" s="7">
+        <v>60</v>
       </c>
       <c r="G6" s="18">
         <v>18.699479999999998</v>
@@ -1424,8 +1427,8 @@
         <f>G6-A6</f>
         <v>12.699479999999998</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>39</v>
+      <c r="I6" s="7">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1444,8 +1447,8 @@
       <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>33</v>
+      <c r="F7" s="11">
+        <v>70</v>
       </c>
       <c r="G7" s="19">
         <v>19.700239999999997</v>
@@ -1454,8 +1457,8 @@
         <f>G7-A7</f>
         <v>12.700239999999997</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>41</v>
+      <c r="I7" s="11">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1474,8 +1477,8 @@
       <c r="E8" s="11">
         <v>5</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>43</v>
+      <c r="F8" s="11">
+        <v>80</v>
       </c>
       <c r="G8" s="19">
         <v>20.700999999999997</v>
@@ -1484,8 +1487,8 @@
         <f>G8-A8</f>
         <v>12.700999999999997</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>44</v>
+      <c r="I8" s="11">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1504,8 +1507,8 @@
       <c r="E9" s="7">
         <v>6</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
+      <c r="F9" s="7">
+        <v>60</v>
       </c>
       <c r="G9" s="18">
         <v>21.23948</v>
@@ -1514,8 +1517,8 @@
         <f>G9-A9</f>
         <v>15.23948</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>47</v>
+      <c r="I9" s="7">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1534,8 +1537,8 @@
       <c r="E10" s="15">
         <v>6</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>33</v>
+      <c r="F10" s="15">
+        <v>70</v>
       </c>
       <c r="G10" s="20">
         <v>22.24024</v>
@@ -1544,8 +1547,8 @@
         <f>G10-A10</f>
         <v>15.24024</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>49</v>
+      <c r="I10" s="15">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1564,8 +1567,8 @@
       <c r="E11" s="11">
         <v>6</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>43</v>
+      <c r="F11" s="11">
+        <v>80</v>
       </c>
       <c r="G11" s="19">
         <v>23.241</v>
@@ -1574,8 +1577,8 @@
         <f>G11-A11</f>
         <v>15.241</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>51</v>
+      <c r="I11" s="11">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
